--- a/data/Course Booklet 2019/CH_UG_Curriculum.xlsx
+++ b/data/Course Booklet 2019/CH_UG_Curriculum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="195">
   <si>
     <t xml:space="preserve">Semester</t>
   </si>
@@ -419,13 +419,10 @@
     <t xml:space="preserve">Department Electives II</t>
   </si>
   <si>
-    <t xml:space="preserve">Course Name (Optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credits (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basket Name</t>
+    <t xml:space="preserve">Basket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological Processes</t>
   </si>
   <si>
     <t xml:space="preserve">CH2130</t>
@@ -434,9 +431,6 @@
     <t xml:space="preserve">Systems Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Biological Processes</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHXXXX</t>
   </si>
   <si>
@@ -461,15 +455,15 @@
     <t xml:space="preserve">Biomechanics</t>
   </si>
   <si>
+    <t xml:space="preserve">Energy and Environment</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH6690</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Storage Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy and Environment</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH6020</t>
   </si>
   <si>
@@ -506,15 +500,15 @@
     <t xml:space="preserve">Air Pollution</t>
   </si>
   <si>
+    <t xml:space="preserve">Materials</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH1440</t>
   </si>
   <si>
     <t xml:space="preserve">Engineering Materials</t>
   </si>
   <si>
-    <t xml:space="preserve">Materials</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH6710</t>
   </si>
   <si>
@@ -533,13 +527,13 @@
     <t xml:space="preserve">Interfacial Chemistry</t>
   </si>
   <si>
+    <t xml:space="preserve">Chemical Processes</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH1480</t>
   </si>
   <si>
     <t xml:space="preserve">Chemical Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Processes</t>
   </si>
   <si>
     <t xml:space="preserve">CH2580</t>
@@ -789,12 +783,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -804,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z272"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3486,5606 +3480,206 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
-      <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2"/>
-      <c r="V135" s="2"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-      <c r="Z135" s="2"/>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
-      <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2"/>
-      <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
-      <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
-      <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
-      <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
-      <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
-      <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
-      <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2"/>
-      <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2"/>
-      <c r="V145" s="2"/>
-      <c r="W145" s="2"/>
-      <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
-      <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
-      <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-      <c r="Z178" s="2"/>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-      <c r="Z184" s="2"/>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
-      <c r="Y187" s="2"/>
-      <c r="Z187" s="2"/>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2"/>
-      <c r="V189" s="2"/>
-      <c r="W189" s="2"/>
-      <c r="X189" s="2"/>
-      <c r="Y189" s="2"/>
-      <c r="Z189" s="2"/>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
-      <c r="X190" s="2"/>
-      <c r="Y190" s="2"/>
-      <c r="Z190" s="2"/>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
-      <c r="X191" s="2"/>
-      <c r="Y191" s="2"/>
-      <c r="Z191" s="2"/>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
-      <c r="V192" s="2"/>
-      <c r="W192" s="2"/>
-      <c r="X192" s="2"/>
-      <c r="Y192" s="2"/>
-      <c r="Z192" s="2"/>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-      <c r="Z193" s="2"/>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
-      <c r="V194" s="2"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
-      <c r="Z194" s="2"/>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
-      <c r="V195" s="2"/>
-      <c r="W195" s="2"/>
-      <c r="X195" s="2"/>
-      <c r="Y195" s="2"/>
-      <c r="Z195" s="2"/>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
-      <c r="V196" s="2"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
-      <c r="Z196" s="2"/>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
-      <c r="V197" s="2"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
-      <c r="Z197" s="2"/>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
-      <c r="V198" s="2"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
-      <c r="W201" s="2"/>
-      <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
-      <c r="Z202" s="2"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
-    </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
-      <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
-      <c r="Z204" s="2"/>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
-      <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
-      <c r="Z205" s="2"/>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2"/>
-      <c r="V206" s="2"/>
-      <c r="W206" s="2"/>
-      <c r="X206" s="2"/>
-      <c r="Y206" s="2"/>
-      <c r="Z206" s="2"/>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2"/>
-      <c r="V207" s="2"/>
-      <c r="W207" s="2"/>
-      <c r="X207" s="2"/>
-      <c r="Y207" s="2"/>
-      <c r="Z207" s="2"/>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="2"/>
-      <c r="S208" s="2"/>
-      <c r="T208" s="2"/>
-      <c r="U208" s="2"/>
-      <c r="V208" s="2"/>
-      <c r="W208" s="2"/>
-      <c r="X208" s="2"/>
-      <c r="Y208" s="2"/>
-      <c r="Z208" s="2"/>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-    </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-    </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
-    </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
-    </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
-    </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-    </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
-    </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-    </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
-    </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
-    </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
-    </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
-    </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
-    </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="2"/>
-      <c r="Y226" s="2"/>
-      <c r="Z226" s="2"/>
-    </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-    </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2"/>
-      <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
-      <c r="Y228" s="2"/>
-      <c r="Z228" s="2"/>
-    </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2"/>
-      <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Y229" s="2"/>
-      <c r="Z229" s="2"/>
-    </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
-      <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
-    </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="W231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Y231" s="2"/>
-      <c r="Z231" s="2"/>
-    </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
-      <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
-      <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
-    </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Y233" s="2"/>
-      <c r="Z233" s="2"/>
-    </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2"/>
-      <c r="V234" s="2"/>
-      <c r="W234" s="2"/>
-      <c r="X234" s="2"/>
-      <c r="Y234" s="2"/>
-      <c r="Z234" s="2"/>
-    </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
-      <c r="V235" s="2"/>
-      <c r="W235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="Y235" s="2"/>
-      <c r="Z235" s="2"/>
-    </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2"/>
-      <c r="V236" s="2"/>
-      <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
-      <c r="Y236" s="2"/>
-      <c r="Z236" s="2"/>
-    </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2"/>
-      <c r="V237" s="2"/>
-      <c r="W237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
-    </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2"/>
-      <c r="V238" s="2"/>
-      <c r="W238" s="2"/>
-      <c r="X238" s="2"/>
-      <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
-    </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
-    </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
-      <c r="W240" s="2"/>
-      <c r="X240" s="2"/>
-      <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
-    </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-      <c r="X241" s="2"/>
-      <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
-    </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
-      <c r="W242" s="2"/>
-      <c r="X242" s="2"/>
-      <c r="Y242" s="2"/>
-      <c r="Z242" s="2"/>
-    </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="W243" s="2"/>
-      <c r="X243" s="2"/>
-      <c r="Y243" s="2"/>
-      <c r="Z243" s="2"/>
-    </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2"/>
-      <c r="V244" s="2"/>
-      <c r="W244" s="2"/>
-      <c r="X244" s="2"/>
-      <c r="Y244" s="2"/>
-      <c r="Z244" s="2"/>
-    </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2"/>
-      <c r="V245" s="2"/>
-      <c r="W245" s="2"/>
-      <c r="X245" s="2"/>
-      <c r="Y245" s="2"/>
-      <c r="Z245" s="2"/>
-    </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-      <c r="X246" s="2"/>
-      <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
-    </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2"/>
-      <c r="V247" s="2"/>
-      <c r="W247" s="2"/>
-      <c r="X247" s="2"/>
-      <c r="Y247" s="2"/>
-      <c r="Z247" s="2"/>
-    </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-      <c r="Q248" s="2"/>
-      <c r="R248" s="2"/>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2"/>
-      <c r="U248" s="2"/>
-      <c r="V248" s="2"/>
-      <c r="W248" s="2"/>
-      <c r="X248" s="2"/>
-      <c r="Y248" s="2"/>
-      <c r="Z248" s="2"/>
-    </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2"/>
-      <c r="V249" s="2"/>
-      <c r="W249" s="2"/>
-      <c r="X249" s="2"/>
-      <c r="Y249" s="2"/>
-      <c r="Z249" s="2"/>
-    </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2"/>
-      <c r="V250" s="2"/>
-      <c r="W250" s="2"/>
-      <c r="X250" s="2"/>
-      <c r="Y250" s="2"/>
-      <c r="Z250" s="2"/>
-    </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2"/>
-      <c r="V251" s="2"/>
-      <c r="W251" s="2"/>
-      <c r="X251" s="2"/>
-      <c r="Y251" s="2"/>
-      <c r="Z251" s="2"/>
-    </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
-      <c r="Q252" s="2"/>
-      <c r="R252" s="2"/>
-      <c r="S252" s="2"/>
-      <c r="T252" s="2"/>
-      <c r="U252" s="2"/>
-      <c r="V252" s="2"/>
-      <c r="W252" s="2"/>
-      <c r="X252" s="2"/>
-      <c r="Y252" s="2"/>
-      <c r="Z252" s="2"/>
-    </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2"/>
-      <c r="V253" s="2"/>
-      <c r="W253" s="2"/>
-      <c r="X253" s="2"/>
-      <c r="Y253" s="2"/>
-      <c r="Z253" s="2"/>
-    </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
-      <c r="Q254" s="2"/>
-      <c r="R254" s="2"/>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2"/>
-      <c r="U254" s="2"/>
-      <c r="V254" s="2"/>
-      <c r="W254" s="2"/>
-      <c r="X254" s="2"/>
-      <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
-    </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
-      <c r="V255" s="2"/>
-      <c r="W255" s="2"/>
-      <c r="X255" s="2"/>
-      <c r="Y255" s="2"/>
-      <c r="Z255" s="2"/>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2"/>
-      <c r="V256" s="2"/>
-      <c r="W256" s="2"/>
-      <c r="X256" s="2"/>
-      <c r="Y256" s="2"/>
-      <c r="Z256" s="2"/>
-    </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2"/>
-      <c r="V257" s="2"/>
-      <c r="W257" s="2"/>
-      <c r="X257" s="2"/>
-      <c r="Y257" s="2"/>
-      <c r="Z257" s="2"/>
-    </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2"/>
-      <c r="V258" s="2"/>
-      <c r="W258" s="2"/>
-      <c r="X258" s="2"/>
-      <c r="Y258" s="2"/>
-      <c r="Z258" s="2"/>
-    </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
-      <c r="Q259" s="2"/>
-      <c r="R259" s="2"/>
-      <c r="S259" s="2"/>
-      <c r="T259" s="2"/>
-      <c r="U259" s="2"/>
-      <c r="V259" s="2"/>
-      <c r="W259" s="2"/>
-      <c r="X259" s="2"/>
-      <c r="Y259" s="2"/>
-      <c r="Z259" s="2"/>
-    </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2"/>
-      <c r="V260" s="2"/>
-      <c r="W260" s="2"/>
-      <c r="X260" s="2"/>
-      <c r="Y260" s="2"/>
-      <c r="Z260" s="2"/>
-    </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
-      <c r="Q261" s="2"/>
-      <c r="R261" s="2"/>
-      <c r="S261" s="2"/>
-      <c r="T261" s="2"/>
-      <c r="U261" s="2"/>
-      <c r="V261" s="2"/>
-      <c r="W261" s="2"/>
-      <c r="X261" s="2"/>
-      <c r="Y261" s="2"/>
-      <c r="Z261" s="2"/>
-    </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="2"/>
-      <c r="U262" s="2"/>
-      <c r="V262" s="2"/>
-      <c r="W262" s="2"/>
-      <c r="X262" s="2"/>
-      <c r="Y262" s="2"/>
-      <c r="Z262" s="2"/>
-    </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2"/>
-      <c r="V263" s="2"/>
-      <c r="W263" s="2"/>
-      <c r="X263" s="2"/>
-      <c r="Y263" s="2"/>
-      <c r="Z263" s="2"/>
-    </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2"/>
-      <c r="V264" s="2"/>
-      <c r="W264" s="2"/>
-      <c r="X264" s="2"/>
-      <c r="Y264" s="2"/>
-      <c r="Z264" s="2"/>
-    </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-      <c r="Q265" s="2"/>
-      <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
-      <c r="T265" s="2"/>
-      <c r="U265" s="2"/>
-      <c r="V265" s="2"/>
-      <c r="W265" s="2"/>
-      <c r="X265" s="2"/>
-      <c r="Y265" s="2"/>
-      <c r="Z265" s="2"/>
-    </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2"/>
-      <c r="V266" s="2"/>
-      <c r="W266" s="2"/>
-      <c r="X266" s="2"/>
-      <c r="Y266" s="2"/>
-      <c r="Z266" s="2"/>
-    </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2"/>
-      <c r="V267" s="2"/>
-      <c r="W267" s="2"/>
-      <c r="X267" s="2"/>
-      <c r="Y267" s="2"/>
-      <c r="Z267" s="2"/>
-    </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2"/>
-      <c r="V268" s="2"/>
-      <c r="W268" s="2"/>
-      <c r="X268" s="2"/>
-      <c r="Y268" s="2"/>
-      <c r="Z268" s="2"/>
-    </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2"/>
-      <c r="V269" s="2"/>
-      <c r="W269" s="2"/>
-      <c r="X269" s="2"/>
-      <c r="Y269" s="2"/>
-      <c r="Z269" s="2"/>
-    </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2"/>
-      <c r="V270" s="2"/>
-      <c r="W270" s="2"/>
-      <c r="X270" s="2"/>
-      <c r="Y270" s="2"/>
-      <c r="Z270" s="2"/>
-    </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2"/>
-      <c r="V271" s="2"/>
-      <c r="W271" s="2"/>
-      <c r="X271" s="2"/>
-      <c r="Y271" s="2"/>
-      <c r="Z271" s="2"/>
-    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9833,8 +4427,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9842,7 +4436,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
@@ -9850,460 +4444,391 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>3</v>
+      <c r="A6" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>4</v>
+      <c r="A7" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>4</v>
+      <c r="A12" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>5</v>
+      <c r="A14" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>5</v>
+      <c r="A16" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>5</v>
+      <c r="A17" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>6</v>
+      <c r="A18" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>6</v>
+      <c r="A20" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>6</v>
+      <c r="A21" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>6</v>
+      <c r="A22" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>6</v>
+      <c r="A23" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>6</v>
+      <c r="A24" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>6</v>
+      <c r="A25" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>6</v>
+      <c r="A26" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11338,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11349,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11360,10 +5885,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11374,10 +5899,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12433,7 +6958,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12444,7 +6969,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12455,7 +6980,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12466,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13482,7 +8007,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13649,14 +8174,14 @@
         <v>57</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" s="13" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -13713,14 +8238,14 @@
         <v>57</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" s="13" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G14" s="13"/>
     </row>
